--- a/biology/Médecine/Unité_géographique_d'analyse/Unité_géographique_d'analyse.xlsx
+++ b/biology/Médecine/Unité_géographique_d'analyse/Unité_géographique_d'analyse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unit%C3%A9_g%C3%A9ographique_d%27analyse</t>
+          <t>Unité_géographique_d'analyse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les unités d'analyse géographique (UGA) constituent un découpage géographique de la France en fonction de certains critères propres à l'industrie pharmaceutique dont en particulier le nombre de pharmacies. 
 La réglementation française interdisant de connaître les ventes détaillées de médicaments au niveau des points de vente (à savoir principalement les pharmacies d'officine), l'UGA constitue un niveau d'agrégation minimum pour connaître les ventes détaillées des produits de l'industrie pharmaceutique sur un périmètre géographique donné.
